--- a/Disasters in USA/datasets/disaster_count_per_year.xlsx
+++ b/Disasters in USA/datasets/disaster_count_per_year.xlsx
@@ -1127,10 +1127,21 @@
         <v>2022</v>
       </c>
       <c r="B71" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Disasters in USA/datasets/disaster_count_per_year.xlsx
+++ b/Disasters in USA/datasets/disaster_count_per_year.xlsx
@@ -1138,7 +1138,7 @@
         <v>2023</v>
       </c>
       <c r="B72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72" t="n">
         <v>6</v>
